--- a/1_Data (original data)/1_Raw/03_O_ana_-_All_Landmarked_Matadata.xlsx
+++ b/1_Data (original data)/1_Raw/03_O_ana_-_All_Landmarked_Matadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_folders\Platypus-Skull-Variation\1_Data (original data)\1_Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB9BD8C-CE4E-4A27-B2B0-04BBB51C4B2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D379C6F2-E65E-4E93-8F38-93F8C2C52114}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="184">
   <si>
     <t>Locality Name</t>
   </si>
@@ -154,9 +154,6 @@
     <t>C17031</t>
   </si>
   <si>
-    <t>C17037</t>
-  </si>
-  <si>
     <t>C17040</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>Nagambie</t>
   </si>
   <si>
-    <t>Warburton</t>
-  </si>
-  <si>
     <t>Junction of Murray River &amp; Rufus River</t>
   </si>
   <si>
@@ -563,9 +557,6 @@
   </si>
   <si>
     <t>C7239</t>
-  </si>
-  <si>
-    <t>JM20677</t>
   </si>
   <si>
     <t>CatNum</t>
@@ -1659,11 +1650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1693,10 +1684,10 @@
         <v>20</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>24</v>
@@ -1714,19 +1705,19 @@
         <v>26</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1737,13 +1728,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>28</v>
@@ -1771,19 +1762,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H3" s="23">
         <v>-28.108000000000001</v>
@@ -1792,7 +1783,7 @@
         <v>153.44399999999999</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
@@ -1807,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1843,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -1877,13 +1868,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>28</v>
@@ -1911,23 +1902,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>181</v>
+        <v>132</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="16">
-        <v>-17.338999999999999</v>
-      </c>
-      <c r="I7" s="16">
-        <v>145.625</v>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="23">
+        <v>-27.366</v>
+      </c>
+      <c r="I7" s="23">
+        <v>152.166</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="23"/>
@@ -1943,31 +1936,41 @@
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H8" s="23">
-        <v>-27.366</v>
+        <v>-27.25</v>
       </c>
       <c r="I8" s="23">
-        <v>152.166</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="6"/>
+        <v>152.9</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="23">
+        <v>1062</v>
+      </c>
+      <c r="L8" s="23">
+        <v>345</v>
+      </c>
+      <c r="M8" s="23">
+        <v>98</v>
+      </c>
+      <c r="N8" s="6">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1977,41 +1980,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="23">
-        <v>-27.25</v>
-      </c>
-      <c r="I9" s="23">
-        <v>152.9</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="23">
-        <v>1062</v>
-      </c>
-      <c r="L9" s="23">
-        <v>345</v>
-      </c>
-      <c r="M9" s="23">
-        <v>98</v>
-      </c>
-      <c r="N9" s="6">
-        <v>42</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="28">
+        <v>-33.732999999999997</v>
+      </c>
+      <c r="I9" s="28">
+        <v>150.61600000000001</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -2021,25 +2014,25 @@
         <v>2</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="28">
-        <v>-33.732999999999997</v>
+        <v>-33.4</v>
       </c>
       <c r="I10" s="28">
-        <v>150.61600000000001</v>
+        <v>149.566</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="23"/>
@@ -2055,25 +2048,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="28">
-        <v>-33.4</v>
+        <v>-36.4</v>
       </c>
       <c r="I11" s="28">
-        <v>149.566</v>
+        <v>148.63300000000001</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="23"/>
@@ -2089,31 +2082,31 @@
         <v>2</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="28">
-        <v>-36.4</v>
-      </c>
-      <c r="I12" s="28">
-        <v>148.63300000000001</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="41">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="I12" s="41">
+        <v>145.03</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -2123,25 +2116,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="41">
-        <v>-37.799999999999997</v>
+        <v>-36</v>
       </c>
       <c r="I13" s="41">
-        <v>145.03</v>
+        <v>146</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="41"/>
@@ -2157,19 +2150,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="41">
         <v>-36</v>
@@ -2191,19 +2184,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="41">
         <v>-36</v>
@@ -2225,25 +2218,25 @@
         <v>2</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>69</v>
       </c>
       <c r="H16" s="41">
-        <v>-36</v>
+        <v>-36.35</v>
       </c>
       <c r="I16" s="41">
-        <v>146</v>
+        <v>146.32</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="41"/>
@@ -2259,25 +2252,25 @@
         <v>2</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="41">
-        <v>-36.35</v>
+        <v>-37.880000000000003</v>
       </c>
       <c r="I17" s="41">
-        <v>146.32</v>
+        <v>145.37</v>
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="41"/>
@@ -2293,31 +2286,39 @@
         <v>2</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="41">
-        <v>-37.880000000000003</v>
+        <v>-37.03</v>
       </c>
       <c r="I18" s="41">
-        <v>145.37</v>
+        <v>146.08000000000001</v>
       </c>
       <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="40"/>
+      <c r="K18" s="41">
+        <v>1134</v>
+      </c>
+      <c r="L18" s="41">
+        <v>475</v>
+      </c>
+      <c r="M18" s="41">
+        <v>118</v>
+      </c>
+      <c r="N18" s="40">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -2327,19 +2328,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="E19" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="41">
         <v>-37.03</v>
@@ -2349,16 +2350,16 @@
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="41">
-        <v>1134</v>
+        <v>1047.8</v>
       </c>
       <c r="L19" s="41">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="M19" s="41">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="N19" s="40">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2369,38 +2370,38 @@
         <v>2</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>72</v>
       </c>
       <c r="H20" s="41">
-        <v>-37.03</v>
+        <v>-36.47</v>
       </c>
       <c r="I20" s="41">
-        <v>146.08000000000001</v>
+        <v>147.25</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="41">
-        <v>1047.8</v>
+        <v>1253.3</v>
       </c>
       <c r="L20" s="41">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="M20" s="41">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="N20" s="40">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -2411,39 +2412,37 @@
         <v>2</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>73</v>
       </c>
       <c r="H21" s="41">
-        <v>-36.47</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="I21" s="41">
-        <v>147.25</v>
+        <v>145.25</v>
       </c>
       <c r="J21" s="40"/>
       <c r="K21" s="41">
-        <v>1253.3</v>
+        <v>2595</v>
       </c>
       <c r="L21" s="41">
-        <v>460</v>
+        <v>610</v>
       </c>
       <c r="M21" s="41">
-        <v>126</v>
-      </c>
-      <c r="N21" s="40">
-        <v>60</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -2453,37 +2452,39 @@
         <v>2</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>74</v>
       </c>
       <c r="H22" s="41">
-        <v>-36.200000000000003</v>
+        <v>-36.130000000000003</v>
       </c>
       <c r="I22" s="41">
-        <v>145.25</v>
+        <v>147.03</v>
       </c>
       <c r="J22" s="40"/>
       <c r="K22" s="41">
-        <v>2595</v>
+        <v>2400</v>
       </c>
       <c r="L22" s="41">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="M22" s="41">
-        <v>115</v>
-      </c>
-      <c r="N22" s="40"/>
+        <v>150</v>
+      </c>
+      <c r="N22" s="40">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -2493,39 +2494,37 @@
         <v>2</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>75</v>
       </c>
       <c r="H23" s="41">
-        <v>-36.130000000000003</v>
+        <v>-38.119999999999997</v>
       </c>
       <c r="I23" s="41">
-        <v>147.03</v>
+        <v>147.07</v>
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="41">
-        <v>2400</v>
+        <v>1929</v>
       </c>
       <c r="L23" s="41">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="M23" s="41">
-        <v>150</v>
-      </c>
-      <c r="N23" s="40">
-        <v>69</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N23" s="40"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -2535,35 +2534,35 @@
         <v>2</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H24" s="41">
-        <v>-38.119999999999997</v>
+        <v>-37.270000000000003</v>
       </c>
       <c r="I24" s="41">
-        <v>147.07</v>
+        <v>145.87</v>
       </c>
       <c r="J24" s="40"/>
       <c r="K24" s="41">
-        <v>1929</v>
+        <v>1021</v>
       </c>
       <c r="L24" s="41">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="M24" s="41">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N24" s="40"/>
     </row>
@@ -2575,37 +2574,41 @@
         <v>2</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>77</v>
       </c>
       <c r="H25" s="41">
-        <v>-37.270000000000003</v>
+        <v>-37.83</v>
       </c>
       <c r="I25" s="41">
-        <v>145.87</v>
-      </c>
-      <c r="J25" s="40"/>
+        <v>147.87</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>60</v>
+      </c>
       <c r="K25" s="41">
-        <v>1021</v>
+        <v>933</v>
       </c>
       <c r="L25" s="41">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="M25" s="41">
-        <v>125</v>
-      </c>
-      <c r="N25" s="40"/>
+        <v>105</v>
+      </c>
+      <c r="N25" s="40">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -2615,40 +2618,38 @@
         <v>2</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>78</v>
       </c>
       <c r="H26" s="41">
-        <v>-37.83</v>
+        <v>-37.78</v>
       </c>
       <c r="I26" s="41">
-        <v>147.87</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>61</v>
-      </c>
+        <v>144.91999999999999</v>
+      </c>
+      <c r="J26" s="40"/>
       <c r="K26" s="41">
-        <v>933</v>
+        <v>1246</v>
       </c>
       <c r="L26" s="41">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="M26" s="41">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="N26" s="40">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2659,39 +2660,37 @@
         <v>2</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>79</v>
       </c>
       <c r="H27" s="41">
-        <v>-37.78</v>
+        <v>-36.78</v>
       </c>
       <c r="I27" s="41">
-        <v>144.91999999999999</v>
+        <v>145.15</v>
       </c>
       <c r="J27" s="40"/>
       <c r="K27" s="41">
-        <v>1246</v>
+        <v>2440</v>
       </c>
       <c r="L27" s="41">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="M27" s="41">
-        <v>140</v>
-      </c>
-      <c r="N27" s="40">
-        <v>50</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N27" s="40"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
@@ -2701,35 +2700,35 @@
         <v>2</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>80</v>
       </c>
       <c r="H28" s="41">
-        <v>-36.78</v>
+        <v>-34.07</v>
       </c>
       <c r="I28" s="41">
-        <v>145.15</v>
+        <v>141.22999999999999</v>
       </c>
       <c r="J28" s="40"/>
       <c r="K28" s="41">
-        <v>2440</v>
+        <v>2156</v>
       </c>
       <c r="L28" s="41">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="M28" s="41">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="N28" s="40"/>
     </row>
@@ -2741,39 +2740,37 @@
         <v>2</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H29" s="41">
-        <v>-37.75</v>
+        <v>-37.270000000000003</v>
       </c>
       <c r="I29" s="41">
-        <v>145.69999999999999</v>
+        <v>145.88</v>
       </c>
       <c r="J29" s="40"/>
       <c r="K29" s="41">
-        <v>373.7</v>
+        <v>1360</v>
       </c>
       <c r="L29" s="41">
-        <v>350</v>
+        <v>510</v>
       </c>
       <c r="M29" s="41">
-        <v>100</v>
-      </c>
-      <c r="N29" s="40">
-        <v>41</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N29" s="40"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
@@ -2783,35 +2780,35 @@
         <v>2</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="41">
-        <v>-34.07</v>
+        <v>-36.020000000000003</v>
       </c>
       <c r="I30" s="41">
-        <v>141.22999999999999</v>
+        <v>146</v>
       </c>
       <c r="J30" s="40"/>
       <c r="K30" s="41">
-        <v>2156</v>
+        <v>2073</v>
       </c>
       <c r="L30" s="41">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="M30" s="41">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="N30" s="40"/>
     </row>
@@ -2823,36 +2820,30 @@
         <v>2</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H31" s="41">
-        <v>-37.270000000000003</v>
+        <v>-37.450000000000003</v>
       </c>
       <c r="I31" s="41">
-        <v>145.88</v>
+        <v>147.83000000000001</v>
       </c>
       <c r="J31" s="40"/>
-      <c r="K31" s="41">
-        <v>1360</v>
-      </c>
-      <c r="L31" s="41">
-        <v>510</v>
-      </c>
-      <c r="M31" s="41">
-        <v>120</v>
-      </c>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
       <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2863,36 +2854,30 @@
         <v>2</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>83</v>
       </c>
       <c r="H32" s="41">
-        <v>-36.020000000000003</v>
+        <v>-38.57</v>
       </c>
       <c r="I32" s="41">
-        <v>146</v>
+        <v>143.9</v>
       </c>
       <c r="J32" s="40"/>
-      <c r="K32" s="41">
-        <v>2073</v>
-      </c>
-      <c r="L32" s="41">
-        <v>516</v>
-      </c>
-      <c r="M32" s="41">
-        <v>148</v>
-      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
       <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2903,31 +2888,39 @@
         <v>2</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H33" s="41">
-        <v>-37.450000000000003</v>
+        <v>-37.75</v>
       </c>
       <c r="I33" s="41">
-        <v>147.83000000000001</v>
+        <v>142.03</v>
       </c>
       <c r="J33" s="40"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="40"/>
+      <c r="K33" s="41">
+        <v>1235</v>
+      </c>
+      <c r="L33" s="41">
+        <v>440</v>
+      </c>
+      <c r="M33" s="41">
+        <v>110</v>
+      </c>
+      <c r="N33" s="40">
+        <v>67</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
@@ -2937,31 +2930,41 @@
         <v>2</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>85</v>
       </c>
       <c r="H34" s="41">
-        <v>-38.57</v>
+        <v>-37.450000000000003</v>
       </c>
       <c r="I34" s="41">
-        <v>143.9</v>
-      </c>
-      <c r="J34" s="40"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="40"/>
+        <v>141.28</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="41">
+        <v>1145</v>
+      </c>
+      <c r="L34" s="41">
+        <v>420</v>
+      </c>
+      <c r="M34" s="41">
+        <v>125</v>
+      </c>
+      <c r="N34" s="40">
+        <v>50</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -2971,38 +2974,40 @@
         <v>2</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>86</v>
       </c>
       <c r="H35" s="41">
-        <v>-37.75</v>
+        <v>-37.270000000000003</v>
       </c>
       <c r="I35" s="41">
-        <v>142.03</v>
-      </c>
-      <c r="J35" s="40"/>
+        <v>145.82</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="K35" s="41">
-        <v>1235</v>
+        <v>1970</v>
       </c>
       <c r="L35" s="41">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="M35" s="41">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="N35" s="40">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -3013,40 +3018,40 @@
         <v>2</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>87</v>
       </c>
       <c r="H36" s="41">
-        <v>-37.450000000000003</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="I36" s="41">
-        <v>141.28</v>
+        <v>147.43</v>
       </c>
       <c r="J36" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K36" s="41">
-        <v>1145</v>
+        <v>1023</v>
       </c>
       <c r="L36" s="41">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="M36" s="41">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N36" s="40">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -3057,40 +3062,38 @@
         <v>2</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>88</v>
       </c>
       <c r="H37" s="41">
-        <v>-37.270000000000003</v>
+        <v>-38.33</v>
       </c>
       <c r="I37" s="41">
-        <v>145.82</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>142.47999999999999</v>
+      </c>
+      <c r="J37" s="40"/>
       <c r="K37" s="41">
-        <v>1970</v>
+        <v>1167</v>
       </c>
       <c r="L37" s="41">
-        <v>540</v>
+        <v>418</v>
       </c>
       <c r="M37" s="41">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="N37" s="40">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -3101,40 +3104,40 @@
         <v>2</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H38" s="41">
-        <v>-37.799999999999997</v>
+        <v>-38.380000000000003</v>
       </c>
       <c r="I38" s="41">
-        <v>147.43</v>
+        <v>142.6</v>
       </c>
       <c r="J38" s="40" t="s">
         <v>64</v>
       </c>
       <c r="K38" s="41">
-        <v>1023</v>
+        <v>1264</v>
       </c>
       <c r="L38" s="41">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="M38" s="41">
         <v>110</v>
       </c>
       <c r="N38" s="40">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -3145,38 +3148,40 @@
         <v>2</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E39" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>90</v>
       </c>
       <c r="H39" s="41">
-        <v>-38.33</v>
+        <v>-37.479999999999997</v>
       </c>
       <c r="I39" s="41">
-        <v>142.47999999999999</v>
-      </c>
-      <c r="J39" s="40"/>
+        <v>148.63</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>65</v>
+      </c>
       <c r="K39" s="41">
-        <v>1167</v>
+        <v>1315.1</v>
       </c>
       <c r="L39" s="41">
-        <v>418</v>
+        <v>485</v>
       </c>
       <c r="M39" s="41">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="N39" s="40">
-        <v>43</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -3187,40 +3192,40 @@
         <v>2</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="H40" s="41">
-        <v>-38.380000000000003</v>
+        <v>-37.270000000000003</v>
       </c>
       <c r="I40" s="41">
-        <v>142.6</v>
+        <v>144.38</v>
       </c>
       <c r="J40" s="40" t="s">
         <v>65</v>
       </c>
       <c r="K40" s="41">
-        <v>1264</v>
+        <v>1064.3</v>
       </c>
       <c r="L40" s="41">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="M40" s="41">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N40" s="40">
-        <v>40</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -3231,41 +3236,33 @@
         <v>2</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H41" s="41">
-        <v>-37.479999999999997</v>
+        <v>-37.270000000000003</v>
       </c>
       <c r="I41" s="41">
-        <v>148.63</v>
+        <v>145.82</v>
       </c>
       <c r="J41" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41" s="41">
-        <v>1315.1</v>
-      </c>
-      <c r="L41" s="41">
-        <v>485</v>
-      </c>
-      <c r="M41" s="41">
-        <v>112</v>
-      </c>
-      <c r="N41" s="40">
-        <v>58.3</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="40"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
@@ -3275,40 +3272,40 @@
         <v>2</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="H42" s="41">
-        <v>-37.270000000000003</v>
+        <v>-37.1</v>
       </c>
       <c r="I42" s="41">
-        <v>144.38</v>
+        <v>145.22</v>
       </c>
       <c r="J42" s="40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K42" s="41">
-        <v>1064.3</v>
+        <v>1714</v>
       </c>
       <c r="L42" s="41">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="M42" s="41">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N42" s="40">
-        <v>54.6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -3319,33 +3316,39 @@
         <v>2</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H43" s="41">
-        <v>-37.270000000000003</v>
+        <v>-37.57</v>
       </c>
       <c r="I43" s="41">
-        <v>145.82</v>
-      </c>
-      <c r="J43" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="40"/>
+        <v>143.85</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="41">
+        <v>1402</v>
+      </c>
+      <c r="L43" s="41">
+        <v>110</v>
+      </c>
+      <c r="M43" s="41">
+        <v>490</v>
+      </c>
+      <c r="N43" s="40">
+        <v>47</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
@@ -3355,41 +3358,39 @@
         <v>2</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>59</v>
+        <v>134</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" s="41">
-        <v>-37.1</v>
-      </c>
-      <c r="I44" s="41">
-        <v>145.22</v>
-      </c>
-      <c r="J44" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="K44" s="41">
-        <v>1714</v>
-      </c>
-      <c r="L44" s="41">
-        <v>480</v>
-      </c>
-      <c r="M44" s="41">
-        <v>100</v>
-      </c>
-      <c r="N44" s="40">
-        <v>59</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="23">
+        <v>-41.003</v>
+      </c>
+      <c r="I44" s="23">
+        <v>147.44200000000001</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44" s="23">
+        <v>885.9</v>
+      </c>
+      <c r="L44" s="7">
+        <v>426</v>
+      </c>
+      <c r="M44" s="7">
+        <v>90</v>
+      </c>
+      <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
@@ -3399,39 +3400,39 @@
         <v>2</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>60</v>
+        <v>134</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H45" s="41">
-        <v>-37.57</v>
-      </c>
-      <c r="I45" s="41">
-        <v>143.85</v>
-      </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="41">
-        <v>1402</v>
-      </c>
-      <c r="L45" s="41">
-        <v>110</v>
-      </c>
-      <c r="M45" s="41">
-        <v>490</v>
-      </c>
-      <c r="N45" s="40">
-        <v>47</v>
-      </c>
+      <c r="F45" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="23">
+        <v>-41.226999999999997</v>
+      </c>
+      <c r="I45" s="23">
+        <v>147.25200000000001</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K45" s="7">
+        <v>1700</v>
+      </c>
+      <c r="L45" s="7">
+        <v>524</v>
+      </c>
+      <c r="M45" s="7">
+        <v>124</v>
+      </c>
+      <c r="N45" s="6"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
@@ -3441,7 +3442,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>98</v>
@@ -3450,28 +3451,26 @@
         <v>4</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H46" s="23">
-        <v>-41.003</v>
+        <v>-41.186999999999998</v>
       </c>
       <c r="I46" s="23">
-        <v>147.44200000000001</v>
+        <v>146.36199999999999</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K46" s="23">
-        <v>885.9</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="K46" s="23"/>
       <c r="L46" s="7">
-        <v>426</v>
+        <v>530</v>
       </c>
       <c r="M46" s="7">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="N46" s="6"/>
     </row>
@@ -3483,37 +3482,37 @@
         <v>2</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H47" s="23">
-        <v>-41.226999999999997</v>
+        <v>-41.488999999999997</v>
       </c>
       <c r="I47" s="23">
-        <v>147.25200000000001</v>
+        <v>146.845</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K47" s="7">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="L47" s="7">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="M47" s="7">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="N47" s="6"/>
     </row>
@@ -3525,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>100</v>
@@ -3534,26 +3533,28 @@
         <v>4</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H48" s="23">
-        <v>-41.186999999999998</v>
+        <v>-41.485999999999997</v>
       </c>
       <c r="I48" s="23">
-        <v>146.36199999999999</v>
+        <v>146.90600000000001</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K48" s="23"/>
+        <v>181</v>
+      </c>
+      <c r="K48" s="7">
+        <v>920</v>
+      </c>
       <c r="L48" s="7">
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="M48" s="7">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="N48" s="6"/>
     </row>
@@ -3565,37 +3566,37 @@
         <v>2</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H49" s="23">
-        <v>-41.488999999999997</v>
+        <v>-41.161000000000001</v>
       </c>
       <c r="I49" s="23">
-        <v>146.845</v>
+        <v>147.739</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K49" s="7">
-        <v>1600</v>
+        <v>1750</v>
       </c>
       <c r="L49" s="7">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="M49" s="7">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="N49" s="6"/>
     </row>
@@ -3607,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>102</v>
@@ -3616,28 +3617,28 @@
         <v>4</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>122</v>
       </c>
       <c r="H50" s="23">
-        <v>-41.485999999999997</v>
+        <v>-42.777999999999999</v>
       </c>
       <c r="I50" s="23">
-        <v>146.90600000000001</v>
+        <v>147.084</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="K50" s="7">
-        <v>920</v>
+        <v>2000</v>
       </c>
       <c r="L50" s="7">
-        <v>370</v>
+        <v>530</v>
       </c>
       <c r="M50" s="7">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="N50" s="6"/>
     </row>
@@ -3649,37 +3650,37 @@
         <v>2</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>103</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H51" s="23">
-        <v>-41.161000000000001</v>
+        <v>-42.777999999999999</v>
       </c>
       <c r="I51" s="23">
-        <v>147.739</v>
+        <v>147.084</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="K51" s="7">
-        <v>1750</v>
+        <v>1250</v>
       </c>
       <c r="L51" s="7">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="M51" s="7">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N51" s="6"/>
     </row>
@@ -3691,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>104</v>
@@ -3700,10 +3701,10 @@
         <v>4</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H52" s="23">
         <v>-42.777999999999999</v>
@@ -3712,13 +3713,13 @@
         <v>147.084</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="K52" s="7">
         <v>2000</v>
       </c>
       <c r="L52" s="7">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="M52" s="7">
         <v>130</v>
@@ -3733,19 +3734,19 @@
         <v>2</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H53" s="23">
         <v>-42.777999999999999</v>
@@ -3754,16 +3755,16 @@
         <v>147.084</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="K53" s="7">
-        <v>1250</v>
+        <v>1750</v>
       </c>
       <c r="L53" s="7">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="M53" s="7">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N53" s="6"/>
     </row>
@@ -3775,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>106</v>
@@ -3784,28 +3785,28 @@
         <v>4</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H54" s="23">
-        <v>-42.777999999999999</v>
+        <v>-41.557000000000002</v>
       </c>
       <c r="I54" s="23">
-        <v>147.084</v>
+        <v>146.61600000000001</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K54" s="7">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L54" s="7">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="M54" s="7">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N54" s="6"/>
     </row>
@@ -3817,31 +3818,31 @@
         <v>2</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H55" s="23">
-        <v>-42.777999999999999</v>
+        <v>-41.557000000000002</v>
       </c>
       <c r="I55" s="23">
-        <v>147.084</v>
+        <v>146.61600000000001</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K55" s="7">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="L55" s="7">
         <v>470</v>
@@ -3859,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>108</v>
@@ -3868,28 +3869,28 @@
         <v>4</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H56" s="23">
-        <v>-41.557000000000002</v>
+        <v>-41.191000000000003</v>
       </c>
       <c r="I56" s="23">
-        <v>146.61600000000001</v>
+        <v>146.79900000000001</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="K56" s="7">
-        <v>2500</v>
+        <v>620</v>
       </c>
       <c r="L56" s="7">
-        <v>575</v>
+        <v>420</v>
       </c>
       <c r="M56" s="7">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="N56" s="6"/>
     </row>
@@ -3901,38 +3902,30 @@
         <v>2</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>109</v>
+        <v>137</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="E57" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>128</v>
+      <c r="F57" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="H57" s="23">
-        <v>-41.557000000000002</v>
+        <v>-35.241</v>
       </c>
       <c r="I57" s="23">
-        <v>146.61600000000001</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K57" s="7">
-        <v>1000</v>
-      </c>
-      <c r="L57" s="7">
-        <v>470</v>
-      </c>
-      <c r="M57" s="7">
-        <v>125</v>
-      </c>
+        <v>148.94999999999999</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -3943,38 +3936,30 @@
         <v>2</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>110</v>
+        <v>137</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="E58" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>125</v>
+      <c r="F58" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="H58" s="23">
-        <v>-41.191000000000003</v>
+        <v>-35.337000000000003</v>
       </c>
       <c r="I58" s="23">
-        <v>146.79900000000001</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K58" s="7">
-        <v>620</v>
-      </c>
-      <c r="L58" s="7">
-        <v>420</v>
-      </c>
-      <c r="M58" s="7">
-        <v>90</v>
-      </c>
+        <v>149.22999999999999</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
       <c r="N58" s="6"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3985,25 +3970,25 @@
         <v>2</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>140</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>154</v>
+        <v>180</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>156</v>
       </c>
       <c r="H59" s="23">
-        <v>-35.241</v>
+        <v>-35.450000000000003</v>
       </c>
       <c r="I59" s="23">
-        <v>148.94999999999999</v>
+        <v>149.25800000000001</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="23"/>
@@ -4019,25 +4004,25 @@
         <v>2</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>141</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H60" s="23">
-        <v>-35.337000000000003</v>
+        <v>-35.366</v>
       </c>
       <c r="I60" s="23">
-        <v>149.22999999999999</v>
+        <v>148.983</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="23"/>
@@ -4053,27 +4038,29 @@
         <v>2</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="29" t="s">
         <v>142</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H61" s="23">
-        <v>-35.450000000000003</v>
-      </c>
-      <c r="I61" s="23">
-        <v>149.25800000000001</v>
-      </c>
-      <c r="J61" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H61" s="31">
+        <v>-35.366</v>
+      </c>
+      <c r="I61" s="31">
+        <v>148.983</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
       <c r="M61" s="23"/>
@@ -4087,27 +4074,29 @@
         <v>2</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="29" t="s">
         <v>143</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H62" s="23">
+        <v>152</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="31">
         <v>-35.366</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="31">
         <v>148.983</v>
       </c>
-      <c r="J62" s="6"/>
+      <c r="J62" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
       <c r="M62" s="23"/>
@@ -4121,29 +4110,27 @@
         <v>2</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>144</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="H63" s="31">
+        <v>152</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" s="23">
         <v>-35.366</v>
       </c>
-      <c r="I63" s="31">
+      <c r="I63" s="23">
         <v>148.983</v>
       </c>
-      <c r="J63" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="J63" s="6"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
       <c r="M63" s="23"/>
@@ -4157,29 +4144,27 @@
         <v>2</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="22" t="s">
         <v>145</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="H64" s="31">
+        <v>152</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H64" s="23">
         <v>-35.366</v>
       </c>
-      <c r="I64" s="31">
+      <c r="I64" s="23">
         <v>148.983</v>
       </c>
-      <c r="J64" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="J64" s="6"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
       <c r="M64" s="23"/>
@@ -4193,19 +4178,19 @@
         <v>2</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>146</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H65" s="23">
         <v>-35.366</v>
@@ -4227,19 +4212,19 @@
         <v>2</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>147</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H66" s="23">
         <v>-35.366</v>
@@ -4261,25 +4246,25 @@
         <v>2</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>148</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H67" s="23">
-        <v>-35.366</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="I67" s="23">
-        <v>148.983</v>
+        <v>149.1</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="23"/>
@@ -4295,25 +4280,25 @@
         <v>2</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>149</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H68" s="23">
-        <v>-35.366</v>
+        <v>-35.305</v>
       </c>
       <c r="I68" s="23">
-        <v>148.983</v>
+        <v>149.083</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="23"/>
@@ -4329,25 +4314,25 @@
         <v>2</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D69" s="22" t="s">
         <v>150</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>160</v>
       </c>
       <c r="H69" s="23">
-        <v>-35.299999999999997</v>
+        <v>-35.533000000000001</v>
       </c>
       <c r="I69" s="23">
-        <v>149.1</v>
+        <v>148.833</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="23"/>
@@ -4363,25 +4348,25 @@
         <v>2</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D70" s="22" t="s">
         <v>151</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>154</v>
+        <v>180</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>161</v>
       </c>
       <c r="H70" s="23">
-        <v>-35.305</v>
+        <v>-33.332999999999998</v>
       </c>
       <c r="I70" s="23">
-        <v>149.083</v>
+        <v>148.63300000000001</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="23"/>
@@ -4396,32 +4381,32 @@
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>152</v>
+      <c r="C71" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H71" s="23">
-        <v>-35.533000000000001</v>
-      </c>
-      <c r="I71" s="23">
-        <v>148.833</v>
-      </c>
-      <c r="J71" s="6"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H71" s="32">
+        <v>-42</v>
+      </c>
+      <c r="I71" s="32">
+        <v>146.5</v>
+      </c>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
@@ -4430,32 +4415,32 @@
       <c r="B72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H72" s="23">
-        <v>-33.332999999999998</v>
-      </c>
-      <c r="I72" s="23">
-        <v>148.63300000000001</v>
-      </c>
-      <c r="J72" s="6"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="6"/>
+      <c r="C72" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H72" s="32">
+        <v>-37.832999999999998</v>
+      </c>
+      <c r="I72" s="32">
+        <v>140.78299999999999</v>
+      </c>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
@@ -4465,27 +4450,29 @@
         <v>2</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E73" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>111</v>
+        <v>168</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="H73" s="32">
-        <v>-42</v>
+        <v>-35.332999999999998</v>
       </c>
       <c r="I73" s="32">
-        <v>146.5</v>
-      </c>
-      <c r="J73" s="27"/>
+        <v>139.38300000000001</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>172</v>
+      </c>
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
       <c r="M73" s="27"/>
@@ -4499,31 +4486,39 @@
         <v>2</v>
       </c>
       <c r="C74" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="27" t="s">
         <v>166</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>172</v>
       </c>
       <c r="E74" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H74" s="32">
-        <v>-37.832999999999998</v>
+        <v>-34.265999999999998</v>
       </c>
       <c r="I74" s="32">
-        <v>140.78299999999999</v>
-      </c>
-      <c r="J74" s="27"/>
+        <v>140.68299999999999</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
+      <c r="L74" s="27">
+        <v>543</v>
+      </c>
+      <c r="M74" s="27">
+        <v>147</v>
+      </c>
+      <c r="N74" s="27">
+        <v>59</v>
+      </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
@@ -4533,109 +4528,31 @@
         <v>2</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="15" t="s">
-        <v>167</v>
+      <c r="F75" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H75" s="32">
-        <v>-35.332999999999998</v>
+        <v>-41.533000000000001</v>
       </c>
       <c r="I75" s="32">
-        <v>139.38300000000001</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>174</v>
-      </c>
+        <v>146.833</v>
+      </c>
+      <c r="J75" s="27"/>
       <c r="K75" s="27"/>
       <c r="L75" s="27"/>
       <c r="M75" s="27"/>
       <c r="N75" s="27"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G76" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="H76" s="32">
-        <v>-34.265999999999998</v>
-      </c>
-      <c r="I76" s="32">
-        <v>140.68299999999999</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27">
-        <v>543</v>
-      </c>
-      <c r="M76" s="27">
-        <v>147</v>
-      </c>
-      <c r="N76" s="27">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="H77" s="32">
-        <v>-41.533000000000001</v>
-      </c>
-      <c r="I77" s="32">
-        <v>146.833</v>
-      </c>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
